--- a/product_ranking_Easy_Fan_Lashes.xlsx
+++ b/product_ranking_Easy_Fan_Lashes.xlsx
@@ -9,17 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="160">
   <si>
     <t>eyelash extension private label</t>
   </si>
@@ -119,6 +121,463 @@
   </si>
   <si>
     <t>blooming lash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vegan Easy Fan Volume Blooming Camellia Lash</t>
+  </si>
+  <si>
+    <t>Vegan Easy Fan Volume Blooming Eyelash Extension Camellia</t>
+  </si>
+  <si>
+    <t>Camellia Volume Eyelash Extension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>camellia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume eyelash extension</t>
+  </si>
+  <si>
+    <t>eyelash extension silk</t>
+  </si>
+  <si>
+    <t>3d eyelash extension</t>
+  </si>
+  <si>
+    <t>lash extension supplies</t>
+  </si>
+  <si>
+    <t>lash extension tray</t>
+  </si>
+  <si>
+    <t>6d eyelash extension</t>
+  </si>
+  <si>
+    <t>extension eyelash</t>
+  </si>
+  <si>
+    <t>2d eyelash extension</t>
+  </si>
+  <si>
+    <t>5d eyelash extension</t>
+  </si>
+  <si>
+    <t>eyelash extension 3d</t>
+  </si>
+  <si>
+    <t>lash silk extension</t>
+  </si>
+  <si>
+    <t>private_label lash extension</t>
+  </si>
+  <si>
+    <t>pbt korean eyelash extension</t>
+  </si>
+  <si>
+    <t>wimpern eyelash extension</t>
+  </si>
+  <si>
+    <t>d curl eyelash extension</t>
+  </si>
+  <si>
+    <t>eyelash extension supplies private_label</t>
+  </si>
+  <si>
+    <t>bulk eyelash extension</t>
+  </si>
+  <si>
+    <t>eyelash extension faux_mink</t>
+  </si>
+  <si>
+    <t>eyelash extension lovely</t>
+  </si>
+  <si>
+    <t>russian lash extension</t>
+  </si>
+  <si>
+    <t>dd curl eyelash extension</t>
+  </si>
+  <si>
+    <t>silk lash extension</t>
+  </si>
+  <si>
+    <t>single eyelash extension</t>
+  </si>
+  <si>
+    <t>eyelash extension professional private_label</t>
+  </si>
+  <si>
+    <t>lash extension wholesale</t>
+  </si>
+  <si>
+    <t>classic eyelash extension</t>
+  </si>
+  <si>
+    <t>0.07 silk eyelash extension</t>
+  </si>
+  <si>
+    <t>customize eyelash extension</t>
+  </si>
+  <si>
+    <t>synthetic eyelash extension</t>
+  </si>
+  <si>
+    <t>4d eyelash extension</t>
+  </si>
+  <si>
+    <t>lash extension fan</t>
+  </si>
+  <si>
+    <t>deluxe eyelash extension</t>
+  </si>
+  <si>
+    <t>wholesale eyelash extension</t>
+  </si>
+  <si>
+    <t>individual lash extension</t>
+  </si>
+  <si>
+    <t>eyelash extension d curl</t>
+  </si>
+  <si>
+    <t>eyelash extension c curl</t>
+  </si>
+  <si>
+    <t>lash extension private_label</t>
+  </si>
+  <si>
+    <t>synthetic silk eyelash extension</t>
+  </si>
+  <si>
+    <t>your own_brand eyelash extension</t>
+  </si>
+  <si>
+    <t>0.06 eyelash extension</t>
+  </si>
+  <si>
+    <t>individual eyelash extension18mm</t>
+  </si>
+  <si>
+    <t>wholesale individual eyelash extension</t>
+  </si>
+  <si>
+    <t>6d lash extension</t>
+  </si>
+  <si>
+    <t>oem eyelash extension</t>
+  </si>
+  <si>
+    <t>3d lash extension</t>
+  </si>
+  <si>
+    <t>cc curl lash extension</t>
+  </si>
+  <si>
+    <t>wholesale silk eyelash extension</t>
+  </si>
+  <si>
+    <t>private_label eyelash extensionsupplies</t>
+  </si>
+  <si>
+    <t>0.07 eyelash extension</t>
+  </si>
+  <si>
+    <t>eyelash extension 5d</t>
+  </si>
+  <si>
+    <t>eyelash extension professional individual</t>
+  </si>
+  <si>
+    <t>5d lash extension</t>
+  </si>
+  <si>
+    <t>lash extension supplier</t>
+  </si>
+  <si>
+    <t>pbt lash extension</t>
+  </si>
+  <si>
+    <t>eyelash extension soft</t>
+  </si>
+  <si>
+    <t>eyelash extension oem</t>
+  </si>
+  <si>
+    <t>eyelash extension 0.03</t>
+  </si>
+  <si>
+    <t>silk individual eyelash extension</t>
+  </si>
+  <si>
+    <t>matte eyelash extension</t>
+  </si>
+  <si>
+    <t>premade eyelash extension</t>
+  </si>
+  <si>
+    <t>your own label eyelash extension</t>
+  </si>
+  <si>
+    <t>best eyelash extension</t>
+  </si>
+  <si>
+    <t>eyelash extension supplies wholesale</t>
+  </si>
+  <si>
+    <t>eyelash individual extension</t>
+  </si>
+  <si>
+    <t>eyelash extension supplier</t>
+  </si>
+  <si>
+    <t>lash extension cc curl</t>
+  </si>
+  <si>
+    <t>lash extension individual</t>
+  </si>
+  <si>
+    <t>high quality lash extension</t>
+  </si>
+  <si>
+    <t>premium silk eyelash extension</t>
+  </si>
+  <si>
+    <t>vegan eyelash extension</t>
+  </si>
+  <si>
+    <t>korean silk eyelash extension</t>
+  </si>
+  <si>
+    <t>eyelash extension 0.05</t>
+  </si>
+  <si>
+    <t>eyelash extension 18mm</t>
+  </si>
+  <si>
+    <t>lash extension silk</t>
+  </si>
+  <si>
+    <t>korean lash extension</t>
+  </si>
+  <si>
+    <t>own_brand eyelash extension</t>
+  </si>
+  <si>
+    <t>cc dd eyelash extension</t>
+  </si>
+  <si>
+    <t>eyelash extension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eyelash extension silk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>korean pbt fiber eyelash extension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>professional eyelash extension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pbt material korea eyelash extension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false eyelash extension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>silk eyelash extension private_label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>your logo eyelash extension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eyelash extension professional</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mink eyelash extension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>private_label eyelash extension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>individual eyelash extension private_label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>korean eyelash extension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eyelash extension supplies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17-35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>silk eyelash extension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eyelash extension supplies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>individual eyelash extension private label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eyelash extension wholesale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eyelash extension professional</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wholesale eyelash extension professional salon use</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>individual eyelash extension for private label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supply eyelash extension silk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>premium eyelash extension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eyelash extension tray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Classic Your Logo Professional Bulk PBT Material Fiber Silk Premium Korean Private Label False Eyelash Extension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wholesale Vegan Easy Fan Volume Blooming Camellia Eyelash Extension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>classic your logo professional dd curl bulk pbt material fiber silk premium korean private label false eyelash extension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>individual eyelash extension supplies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>individual eyelash extension silk for private label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eyelash extension Professional</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wholesale PBT Fiber Silk Private Label Premium Individual Korean Silk Premium Synthetic Faux Mink Eyelash Extension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extension lash</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -194,7 +653,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -298,6 +757,21 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -580,8 +1054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -861,4 +1335,1866 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:J122"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="4" width="4.625" customWidth="1"/>
+    <col min="5" max="5" width="26.625" style="40" customWidth="1"/>
+    <col min="6" max="6" width="5.625" style="41" customWidth="1"/>
+    <col min="7" max="7" width="5.125" style="41" customWidth="1"/>
+    <col min="8" max="8" width="5.25" style="41" customWidth="1"/>
+    <col min="9" max="9" width="90.75" style="39" customWidth="1"/>
+    <col min="10" max="10" width="4.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E4" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="I5" s="39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="I6" s="39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="I7" s="39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="5:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="H10" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="I10" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="J10">
+        <f>LEN(I10)</f>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="H11" s="43"/>
+      <c r="I11" s="39" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="H12" s="43"/>
+      <c r="I12" s="39" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="H13" s="43"/>
+      <c r="I13" s="39" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="5:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="H16" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="I16" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="J16">
+        <f>LEN(I16)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H17" s="43"/>
+      <c r="I17" s="41" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H18" s="43"/>
+      <c r="I18" s="40" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H19" s="43"/>
+      <c r="I19" s="41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H20" s="43"/>
+      <c r="I20" s="41" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H21" s="42"/>
+      <c r="I21" s="41"/>
+    </row>
+    <row r="22" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="H22" s="42"/>
+      <c r="I22" s="41" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H23" s="42"/>
+      <c r="I23" s="41" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H24" s="42"/>
+      <c r="I24" s="41" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H25" s="42"/>
+      <c r="I25" s="41" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H26" s="42"/>
+      <c r="I26" s="41"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G27" s="41">
+        <v>2</v>
+      </c>
+      <c r="H27" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="I27" s="41"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>727</v>
+      </c>
+      <c r="C28">
+        <v>497</v>
+      </c>
+      <c r="D28">
+        <v>3091</v>
+      </c>
+      <c r="E28" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="G28" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="H28" s="41" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>371</v>
+      </c>
+      <c r="C29">
+        <v>89</v>
+      </c>
+      <c r="D29">
+        <v>591</v>
+      </c>
+      <c r="E29" s="40" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>198</v>
+      </c>
+      <c r="C30">
+        <v>37</v>
+      </c>
+      <c r="D30">
+        <v>499</v>
+      </c>
+      <c r="E30" s="40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>340</v>
+      </c>
+      <c r="C31">
+        <v>68</v>
+      </c>
+      <c r="D31">
+        <v>489</v>
+      </c>
+      <c r="E31" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="F31" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="G31" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="H31" s="41" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>146</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>463</v>
+      </c>
+      <c r="E32" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="F32" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="G32" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="41" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>12</v>
+      </c>
+      <c r="B33">
+        <v>36</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>451</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="F33" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="G33" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="H33" s="41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>13</v>
+      </c>
+      <c r="B34">
+        <v>104</v>
+      </c>
+      <c r="C34">
+        <v>7</v>
+      </c>
+      <c r="D34">
+        <v>395</v>
+      </c>
+      <c r="E34" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="F34" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="G34" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="H34" s="41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>17</v>
+      </c>
+      <c r="B35">
+        <v>328</v>
+      </c>
+      <c r="C35">
+        <v>109</v>
+      </c>
+      <c r="D35">
+        <v>368</v>
+      </c>
+      <c r="E35" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="F35" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="G35" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="H35" s="41" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>18</v>
+      </c>
+      <c r="B36">
+        <v>183</v>
+      </c>
+      <c r="C36">
+        <v>12</v>
+      </c>
+      <c r="D36">
+        <v>361</v>
+      </c>
+      <c r="E36" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="F36" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="G36" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" s="41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>21</v>
+      </c>
+      <c r="B37">
+        <v>116</v>
+      </c>
+      <c r="C37">
+        <v>6</v>
+      </c>
+      <c r="D37">
+        <v>326</v>
+      </c>
+      <c r="E37" s="40" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>22</v>
+      </c>
+      <c r="B38">
+        <v>72</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <v>322</v>
+      </c>
+      <c r="E38" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="F38" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="G38" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="H38" s="41" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>33</v>
+      </c>
+      <c r="B39">
+        <v>257</v>
+      </c>
+      <c r="C39">
+        <v>52</v>
+      </c>
+      <c r="D39">
+        <v>280</v>
+      </c>
+      <c r="E39" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="F39" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="G39" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="H39" s="41" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>34</v>
+      </c>
+      <c r="B40">
+        <v>202</v>
+      </c>
+      <c r="C40">
+        <v>21</v>
+      </c>
+      <c r="D40">
+        <v>277</v>
+      </c>
+      <c r="E40" s="40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41">
+        <v>212</v>
+      </c>
+      <c r="C41">
+        <v>17</v>
+      </c>
+      <c r="D41">
+        <v>263</v>
+      </c>
+      <c r="E41" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="G41" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="H41" s="41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>56</v>
+      </c>
+      <c r="B42">
+        <v>55</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>224</v>
+      </c>
+      <c r="E42" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>59</v>
+      </c>
+      <c r="B43">
+        <v>12</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>222</v>
+      </c>
+      <c r="E43" s="40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>67</v>
+      </c>
+      <c r="B44">
+        <v>82</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>210</v>
+      </c>
+      <c r="E44" s="40" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>81</v>
+      </c>
+      <c r="B45">
+        <v>33</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>192</v>
+      </c>
+      <c r="E45" s="40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>86</v>
+      </c>
+      <c r="B46">
+        <v>152</v>
+      </c>
+      <c r="C46">
+        <v>18</v>
+      </c>
+      <c r="D46">
+        <v>187</v>
+      </c>
+      <c r="E46" s="40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>88</v>
+      </c>
+      <c r="B47">
+        <v>19</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>184</v>
+      </c>
+      <c r="E47" s="40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>89</v>
+      </c>
+      <c r="B48">
+        <v>39</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>182</v>
+      </c>
+      <c r="E48" s="40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>96</v>
+      </c>
+      <c r="B49">
+        <v>60</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>175</v>
+      </c>
+      <c r="E49" s="40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>104</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>170</v>
+      </c>
+      <c r="E50" s="40" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>118</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>160</v>
+      </c>
+      <c r="E51" s="40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>119</v>
+      </c>
+      <c r="B52">
+        <v>53</v>
+      </c>
+      <c r="C52">
+        <v>4</v>
+      </c>
+      <c r="D52">
+        <v>160</v>
+      </c>
+      <c r="E52" s="40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>125</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>157</v>
+      </c>
+      <c r="E53" s="40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>149</v>
+      </c>
+      <c r="B54">
+        <v>26</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <v>145</v>
+      </c>
+      <c r="E54" s="40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>151</v>
+      </c>
+      <c r="B55">
+        <v>15</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>145</v>
+      </c>
+      <c r="E55" s="40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>155</v>
+      </c>
+      <c r="B56">
+        <v>18</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>143</v>
+      </c>
+      <c r="E56" s="40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>159</v>
+      </c>
+      <c r="B57">
+        <v>117</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <v>141</v>
+      </c>
+      <c r="E57" s="40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>165</v>
+      </c>
+      <c r="B58">
+        <v>16</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>138</v>
+      </c>
+      <c r="E58" s="40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>169</v>
+      </c>
+      <c r="B59">
+        <v>33</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>134</v>
+      </c>
+      <c r="E59" s="40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>174</v>
+      </c>
+      <c r="B60">
+        <v>11</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>134</v>
+      </c>
+      <c r="E60" s="40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>179</v>
+      </c>
+      <c r="B61">
+        <v>21</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>130</v>
+      </c>
+      <c r="E61" s="40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>185</v>
+      </c>
+      <c r="B62">
+        <v>101</v>
+      </c>
+      <c r="C62">
+        <v>6</v>
+      </c>
+      <c r="D62">
+        <v>128</v>
+      </c>
+      <c r="E62" s="40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>192</v>
+      </c>
+      <c r="B63">
+        <v>164</v>
+      </c>
+      <c r="C63">
+        <v>15</v>
+      </c>
+      <c r="D63">
+        <v>126</v>
+      </c>
+      <c r="E63" s="40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>198</v>
+      </c>
+      <c r="B64">
+        <v>64</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>124</v>
+      </c>
+      <c r="E64" s="40" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>202</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>122</v>
+      </c>
+      <c r="E65" s="40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>219</v>
+      </c>
+      <c r="B66">
+        <v>9</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>118</v>
+      </c>
+      <c r="E66" s="40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>223</v>
+      </c>
+      <c r="B67">
+        <v>8</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>116</v>
+      </c>
+      <c r="E67" s="40" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>224</v>
+      </c>
+      <c r="B68">
+        <v>207</v>
+      </c>
+      <c r="C68">
+        <v>19</v>
+      </c>
+      <c r="D68">
+        <v>116</v>
+      </c>
+      <c r="E68" s="40" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>225</v>
+      </c>
+      <c r="B69">
+        <v>8</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>116</v>
+      </c>
+      <c r="E69" s="40" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>228</v>
+      </c>
+      <c r="B70">
+        <v>33</v>
+      </c>
+      <c r="C70">
+        <v>4</v>
+      </c>
+      <c r="D70">
+        <v>114</v>
+      </c>
+      <c r="E70" s="40" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>232</v>
+      </c>
+      <c r="B71">
+        <v>6</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>114</v>
+      </c>
+      <c r="E71" s="40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>268</v>
+      </c>
+      <c r="B72">
+        <v>59</v>
+      </c>
+      <c r="C72">
+        <v>6</v>
+      </c>
+      <c r="D72">
+        <v>105</v>
+      </c>
+      <c r="E72" s="40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>273</v>
+      </c>
+      <c r="B73">
+        <v>92</v>
+      </c>
+      <c r="C73">
+        <v>10</v>
+      </c>
+      <c r="D73">
+        <v>102</v>
+      </c>
+      <c r="E73" s="40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>284</v>
+      </c>
+      <c r="B74">
+        <v>18</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>100</v>
+      </c>
+      <c r="E74" s="40" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>288</v>
+      </c>
+      <c r="B75">
+        <v>19</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <v>100</v>
+      </c>
+      <c r="E75" s="40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>290</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>100</v>
+      </c>
+      <c r="E76" s="40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>297</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>97</v>
+      </c>
+      <c r="E77" s="40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>301</v>
+      </c>
+      <c r="B78">
+        <v>129</v>
+      </c>
+      <c r="C78">
+        <v>15</v>
+      </c>
+      <c r="D78">
+        <v>97</v>
+      </c>
+      <c r="E78" s="40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>303</v>
+      </c>
+      <c r="B79">
+        <v>73</v>
+      </c>
+      <c r="C79">
+        <v>5</v>
+      </c>
+      <c r="D79">
+        <v>97</v>
+      </c>
+      <c r="E79" s="40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>314</v>
+      </c>
+      <c r="B80">
+        <v>36</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>95</v>
+      </c>
+      <c r="E80" s="40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>328</v>
+      </c>
+      <c r="B81">
+        <v>10</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>92</v>
+      </c>
+      <c r="E81" s="40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>333</v>
+      </c>
+      <c r="B82">
+        <v>68</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+      <c r="D82">
+        <v>92</v>
+      </c>
+      <c r="E82" s="40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>334</v>
+      </c>
+      <c r="B83">
+        <v>24</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>89</v>
+      </c>
+      <c r="E83" s="40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>340</v>
+      </c>
+      <c r="B84">
+        <v>4</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>89</v>
+      </c>
+      <c r="E84" s="40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>343</v>
+      </c>
+      <c r="B85">
+        <v>6</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>89</v>
+      </c>
+      <c r="E85" s="40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>352</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>87</v>
+      </c>
+      <c r="E86" s="40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>355</v>
+      </c>
+      <c r="B87">
+        <v>105</v>
+      </c>
+      <c r="C87">
+        <v>5</v>
+      </c>
+      <c r="D87">
+        <v>87</v>
+      </c>
+      <c r="E87" s="40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>359</v>
+      </c>
+      <c r="B88">
+        <v>11</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>87</v>
+      </c>
+      <c r="E88" s="40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>365</v>
+      </c>
+      <c r="B89">
+        <v>34</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>84</v>
+      </c>
+      <c r="E89" s="40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>371</v>
+      </c>
+      <c r="B90">
+        <v>75</v>
+      </c>
+      <c r="C90">
+        <v>2</v>
+      </c>
+      <c r="D90">
+        <v>84</v>
+      </c>
+      <c r="E90" s="40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>372</v>
+      </c>
+      <c r="B91">
+        <v>45</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>84</v>
+      </c>
+      <c r="E91" s="40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>379</v>
+      </c>
+      <c r="B92">
+        <v>58</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>81</v>
+      </c>
+      <c r="E92" s="40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>394</v>
+      </c>
+      <c r="B93">
+        <v>5</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>77</v>
+      </c>
+      <c r="E93" s="40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>400</v>
+      </c>
+      <c r="B94">
+        <v>56</v>
+      </c>
+      <c r="C94">
+        <v>3</v>
+      </c>
+      <c r="D94">
+        <v>77</v>
+      </c>
+      <c r="E94" s="40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>404</v>
+      </c>
+      <c r="B95">
+        <v>9</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>77</v>
+      </c>
+      <c r="E95" s="40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>405</v>
+      </c>
+      <c r="B96">
+        <v>11</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>77</v>
+      </c>
+      <c r="E96" s="40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>408</v>
+      </c>
+      <c r="B97">
+        <v>12</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>77</v>
+      </c>
+      <c r="E97" s="40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>409</v>
+      </c>
+      <c r="B98">
+        <v>6</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>77</v>
+      </c>
+      <c r="E98" s="40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>410</v>
+      </c>
+      <c r="B99">
+        <v>11</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>77</v>
+      </c>
+      <c r="E99" s="40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>415</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>74</v>
+      </c>
+      <c r="E100" s="40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>419</v>
+      </c>
+      <c r="B101">
+        <v>24</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>74</v>
+      </c>
+      <c r="E101" s="40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>424</v>
+      </c>
+      <c r="B102">
+        <v>30</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>74</v>
+      </c>
+      <c r="E102" s="40" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>425</v>
+      </c>
+      <c r="B103">
+        <v>38</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>74</v>
+      </c>
+      <c r="E103" s="40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>441</v>
+      </c>
+      <c r="B104">
+        <v>29</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>71</v>
+      </c>
+      <c r="E104" s="40" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>442</v>
+      </c>
+      <c r="B105">
+        <v>22</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>71</v>
+      </c>
+      <c r="E105" s="40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>447</v>
+      </c>
+      <c r="B106">
+        <v>4</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>71</v>
+      </c>
+      <c r="E106" s="40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>448</v>
+      </c>
+      <c r="B107">
+        <v>40</v>
+      </c>
+      <c r="C107">
+        <v>2</v>
+      </c>
+      <c r="D107">
+        <v>71</v>
+      </c>
+      <c r="E107" s="40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>449</v>
+      </c>
+      <c r="B108">
+        <v>17</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>71</v>
+      </c>
+      <c r="E108" s="40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>453</v>
+      </c>
+      <c r="B109">
+        <v>11</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>71</v>
+      </c>
+      <c r="E109" s="40" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>454</v>
+      </c>
+      <c r="B110">
+        <v>36</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>71</v>
+      </c>
+      <c r="E110" s="40" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>457</v>
+      </c>
+      <c r="B111">
+        <v>3</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>71</v>
+      </c>
+      <c r="E111" s="40" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>459</v>
+      </c>
+      <c r="B112">
+        <v>5</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>71</v>
+      </c>
+      <c r="E112" s="40" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>461</v>
+      </c>
+      <c r="B113">
+        <v>13</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>71</v>
+      </c>
+      <c r="E113" s="40" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>465</v>
+      </c>
+      <c r="B114">
+        <v>53</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>67</v>
+      </c>
+      <c r="E114" s="40" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>466</v>
+      </c>
+      <c r="B115">
+        <v>4</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>67</v>
+      </c>
+      <c r="E115" s="40" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>470</v>
+      </c>
+      <c r="B116">
+        <v>49</v>
+      </c>
+      <c r="C116">
+        <v>8</v>
+      </c>
+      <c r="D116">
+        <v>67</v>
+      </c>
+      <c r="E116" s="40" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>478</v>
+      </c>
+      <c r="B117">
+        <v>28</v>
+      </c>
+      <c r="C117">
+        <v>2</v>
+      </c>
+      <c r="D117">
+        <v>67</v>
+      </c>
+      <c r="E117" s="40" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>483</v>
+      </c>
+      <c r="B118">
+        <v>4</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>67</v>
+      </c>
+      <c r="E118" s="40" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>487</v>
+      </c>
+      <c r="B119">
+        <v>45</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>67</v>
+      </c>
+      <c r="E119" s="40" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>490</v>
+      </c>
+      <c r="B120">
+        <v>15</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>67</v>
+      </c>
+      <c r="E120" s="40" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>493</v>
+      </c>
+      <c r="B121">
+        <v>64</v>
+      </c>
+      <c r="C121">
+        <v>4</v>
+      </c>
+      <c r="D121">
+        <v>63</v>
+      </c>
+      <c r="E121" s="40" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>496</v>
+      </c>
+      <c r="B122">
+        <v>3</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>63</v>
+      </c>
+      <c r="E122" s="40" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="H16:H20"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>